--- a/textToOps/data/processed/corpora_w_op_type.xlsx
+++ b/textToOps/data/processed/corpora_w_op_type.xlsx
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1308,11 +1308,11 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries,vegetation 애매함. osm만으로 불가.</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1694,11 +1694,11 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
-          <t>data queries,buffer,buffer,overlay analysis,overlay analysis,two set of geometries</t>
+          <t>data queries,buffer,buffer,overlay analysis,overlay analysis</t>
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="Y35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="Y36" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="Y39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="Y40" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
@@ -3052,11 +3052,11 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,정확히 카메라가 무엇을 뜻하는가</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -3119,11 +3119,11 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,각자 buffer를 union 해야하네</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -3190,11 +3190,11 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,matter of scale. 도로는 line인가</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y43" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -3320,11 +3320,11 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,major가 무엇인지</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y45" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="Y46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -3671,11 +3671,11 @@
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
@@ -3750,11 +3750,11 @@
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y51" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
@@ -3829,11 +3829,11 @@
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
@@ -3908,11 +3908,11 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y53" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
@@ -3987,11 +3987,11 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis,어디로 부터 가장 가까운 소방서</t>
+          <t>data queries,network analysis,data queries,network analysis,classification,data queries,overlay analysis</t>
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="Y55" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="Y56" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="Y57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="Y58" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="Y61" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -4527,11 +4527,11 @@
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>data queries,buffer,overlay analysis,shop이 너무나 많다</t>
+          <t>data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y62" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="Y66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -4854,11 +4854,11 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -4925,11 +4925,11 @@
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -4996,11 +4996,11 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr">
         <is>
-          <t>data editing,data queries,buffer,overlay analysis,what area는 그냥 boundary만 얘기하는 것인가? 아니면 다른 attribute도 clip하라는 것인가. 일단 clip. urban tag를 그렇게 사용하지도 않는다</t>
+          <t>data editing,data queries,buffer,overlay analysis</t>
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="Y70" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
@@ -5473,7 +5473,7 @@
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="Y77" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="Y78" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="Y79" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="Y81" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -5887,7 +5887,7 @@
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="Y85" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="Y86" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="Y87" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="Y88" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="Y89" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="Y90" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -6510,11 +6510,11 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
@@ -6577,11 +6577,11 @@
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -6644,11 +6644,11 @@
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y93" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -6711,11 +6711,11 @@
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -6778,11 +6778,11 @@
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -6845,11 +6845,11 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,osm urban이 있긴 하지만 거의 안쓴다</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="Y97" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="Y99" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
@@ -7093,7 +7093,7 @@
         </is>
       </c>
       <c r="Y100" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="Y102" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -7278,11 +7278,11 @@
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -7345,11 +7345,11 @@
       <c r="W104" t="inlineStr"/>
       <c r="X104" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y104" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -7412,11 +7412,11 @@
       <c r="W105" t="inlineStr"/>
       <c r="X105" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y105" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -7479,11 +7479,11 @@
       <c r="W106" t="inlineStr"/>
       <c r="X106" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -7546,11 +7546,11 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t>data queries,generalization,geostatistics  ,https://pro.arcgis.com/en/pro-app/latest/tool-reference/spatial-statistics/h-how-central-feature-spatial-statistics-works.htm</t>
+          <t xml:space="preserve">data queries,generalization,geostatistics  </t>
         </is>
       </c>
       <c r="Y107" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109">
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
@@ -7739,7 +7739,7 @@
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
@@ -7920,7 +7920,7 @@
         </is>
       </c>
       <c r="Y113" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
@@ -7979,7 +7979,7 @@
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="Y116" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="Y117" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
@@ -8223,7 +8223,7 @@
         </is>
       </c>
       <c r="Y118" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
@@ -8341,7 +8341,7 @@
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -8506,7 +8506,7 @@
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
@@ -8679,7 +8679,7 @@
         </is>
       </c>
       <c r="Y126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8730,7 +8730,7 @@
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8785,7 +8785,7 @@
         </is>
       </c>
       <c r="Y128" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -8899,7 +8899,7 @@
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -8954,7 +8954,7 @@
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
@@ -9013,7 +9013,7 @@
         </is>
       </c>
       <c r="Y132" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="Y133" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -9253,7 +9253,7 @@
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -9308,7 +9308,7 @@
         </is>
       </c>
       <c r="Y137" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="Y138" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -9509,7 +9509,7 @@
         </is>
       </c>
       <c r="Y140" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="Y141" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142">
@@ -9643,7 +9643,7 @@
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143">
@@ -9710,7 +9710,7 @@
         </is>
       </c>
       <c r="Y143" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144">
@@ -9777,7 +9777,7 @@
         </is>
       </c>
       <c r="Y144" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145">
@@ -9828,7 +9828,7 @@
         </is>
       </c>
       <c r="Y145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="Y146" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="Y149" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -10163,7 +10163,7 @@
         </is>
       </c>
       <c r="Y150" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="Y151" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -10297,7 +10297,7 @@
         </is>
       </c>
       <c r="Y152" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
@@ -10352,7 +10352,7 @@
         </is>
       </c>
       <c r="Y153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -10415,7 +10415,7 @@
         </is>
       </c>
       <c r="Y154" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="Y155" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156">
@@ -10541,11 +10541,11 @@
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr">
         <is>
-          <t>data queries,overlay analysis,data queries,어디선 polygon, 어디선 linestring</t>
+          <t>data queries,overlay analysis,data queries</t>
         </is>
       </c>
       <c r="Y156" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="Y157" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -10667,7 +10667,7 @@
         </is>
       </c>
       <c r="Y158" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159">
@@ -10730,11 +10730,11 @@
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr">
         <is>
-          <t>data queries,geometry measurement,data queries,https://wiki.openstreetmap.org/wiki/sparql_examples</t>
+          <t>data queries,geometry measurement,data queries</t>
         </is>
       </c>
       <c r="Y159" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="Y160" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
@@ -10860,7 +10860,7 @@
         </is>
       </c>
       <c r="Y161" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
@@ -10935,7 +10935,7 @@
         </is>
       </c>
       <c r="Y162" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
@@ -11034,7 +11034,7 @@
         </is>
       </c>
       <c r="Y163" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="164">
@@ -11097,7 +11097,7 @@
         </is>
       </c>
       <c r="Y164" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165">
@@ -11160,7 +11160,7 @@
         </is>
       </c>
       <c r="Y165" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166">
@@ -11223,7 +11223,7 @@
         </is>
       </c>
       <c r="Y166" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
@@ -11286,7 +11286,7 @@
         </is>
       </c>
       <c r="Y167" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168">
@@ -11361,7 +11361,7 @@
         </is>
       </c>
       <c r="Y168" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169">
@@ -11420,7 +11420,7 @@
         </is>
       </c>
       <c r="Y169" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -11491,7 +11491,7 @@
         </is>
       </c>
       <c r="Y170" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -11570,7 +11570,7 @@
         </is>
       </c>
       <c r="Y171" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172">
@@ -11625,7 +11625,7 @@
         </is>
       </c>
       <c r="Y172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="Y173" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
@@ -11755,11 +11755,11 @@
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr">
         <is>
-          <t>geocoding,data queries,network analysis,data queries,멘탈 헬스를 누가 담당할건데…</t>
+          <t>geocoding,data queries,network analysis,data queries</t>
         </is>
       </c>
       <c r="Y174" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175">
@@ -11822,7 +11822,7 @@
         </is>
       </c>
       <c r="Y175" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
@@ -11897,7 +11897,7 @@
         </is>
       </c>
       <c r="Y176" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177">
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="Y177" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="178">
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="Y178" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="Y179" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180">
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="Y180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="Y181" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="Y182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="Y183" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
@@ -12425,7 +12425,7 @@
         </is>
       </c>
       <c r="Y184" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="Y185" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="Y186" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
@@ -12614,7 +12614,7 @@
         </is>
       </c>
       <c r="Y187" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
